--- a/コンフリクト検証エクセル.xlsx
+++ b/コンフリクト検証エクセル.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\kensyou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEABDC44-732D-42B3-AE0F-925FC8B11E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844C7681-B181-43F3-AEBA-71A47AFA873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="4665" windowWidth="28020" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16980" yWindow="11625" windowWidth="21045" windowHeight="7320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="シートA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -36,6 +37,17 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シートAを追加</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つくってみた</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -361,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -384,6 +396,32 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE70140-833B-4CE2-945D-D45F7E4A5032}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/コンフリクト検証エクセル.xlsx
+++ b/コンフリクト検証エクセル.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\kensyou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEABDC44-732D-42B3-AE0F-925FC8B11E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F31BB0-11DF-4C01-B907-332EA62F40B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="4665" windowWidth="28020" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10320" yWindow="4665" windowWidth="28020" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="シートB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -36,6 +37,17 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランチBで作業</t>
+    <rPh sb="6" eb="8">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBBB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -361,14 +373,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>0</v>
@@ -388,4 +405,25 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32E3FAE-0D4E-4CD0-BDD5-D0669E7B149A}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>